--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,496 +512,676 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>007491</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>南方信息创新混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501082</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>010305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>华夏创新驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>010552</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>浙商智选领航三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010305</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合A</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.19</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010552</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合A</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010553</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合C</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007177</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合A</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007217</t>
+          <t>010553</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合C</t>
+          <t>浙商智选领航三年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>007217</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>浙商智能行业优选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2436,4 +2437,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2911,4 +2912,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2920,7 +2921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,17 +2932,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2972,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2967,14 +3010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.55</v>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2983,14 +3048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.7</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2999,13 +3086,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>18</v>
       </c>
       <c r="D5" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
         <v>9.220000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3509,7 +3510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3520,17 +3521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3540,14 +3561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.06</v>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3556,14 +3599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.11</v>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3572,14 +3637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.55</v>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3588,14 +3675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.7</v>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3604,13 +3713,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>18</v>
       </c>
       <c r="D6" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
         <v>9.220000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.4065</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0848</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.06</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501082</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7350</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7169</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4417</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="7">
@@ -697,492 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3366</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1852</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0566</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.220000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1247,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.49</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9390</t>
+          <t>0.1230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1285,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>012379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>86.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4644</t>
+          <t>0.1099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1323,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010305</t>
+          <t>013855</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合A</t>
+          <t>嘉实品质发现混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3583</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1361,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>012380</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>86.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6079</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1399,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>011144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>华安汇宏精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3845</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1437,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3098</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1475,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007177</t>
+          <t>013856</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合A</t>
+          <t>嘉实品质发现混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2078</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1513,32 +905,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010552</t>
+          <t>011145</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合A</t>
+          <t>华安汇宏精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1255</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1551,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1589,340 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>48.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010553</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智选领航三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +1045,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1987,36 +1075,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.75</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9372</t>
+          <t>2.2523</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2025,36 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>010161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>广发瑞安精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5353</t>
+          <t>0.9634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2063,36 +1151,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>87.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4271</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2101,36 +1189,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3154</t>
+          <t>0.4436</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2139,36 +1227,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>012379</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>74.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2626</t>
+          <t>0.2045</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2177,36 +1265,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.1096</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2215,36 +1303,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011155</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰责任投资混合A</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61.18</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2253,36 +1341,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>012380</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>74.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2291,36 +1379,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011156</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金鹰责任投资混合C</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>61.18</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2329,36 +1417,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>010162</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>广发瑞安精选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2367,36 +1455,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2405,36 +1493,112 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2943,7 +2107,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2973,36 +2137,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2523</t>
+          <t>1.9372</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3011,36 +2175,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010161</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.93</t>
+          <t>27.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9634</t>
+          <t>1.5353</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3049,36 +2213,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.65</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.4271</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3087,36 +2251,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4436</t>
+          <t>0.3154</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3125,36 +2289,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012379</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2045</t>
+          <t>0.2626</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3163,36 +2327,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1096</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3201,36 +2365,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002387</t>
+          <t>011155</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>金鹰责任投资混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>61.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3239,36 +2403,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012380</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -3277,36 +2441,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>011156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>金鹰责任投资混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>61.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3315,36 +2479,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010162</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -3353,36 +2517,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>82.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3391,112 +2555,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>63.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +2619,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3561,36 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>90.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1230</t>
+          <t>1.9390</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3599,36 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012379</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1099</t>
+          <t>1.4644</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3637,36 +2725,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013855</t>
+          <t>010305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实品质发现混合A</t>
+          <t>华夏创新驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>1.3583</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3675,36 +2763,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012380</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.6079</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3713,36 +2801,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011144</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安汇宏精选混合A</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.3845</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3751,36 +2839,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>90.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.3098</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3789,36 +2877,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013856</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实品质发现混合C</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.2078</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3827,32 +2915,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011145</t>
+          <t>010552</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安汇宏精选混合C</t>
+          <t>浙商智选领航三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.1255</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3865,36 +2953,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3903,36 +2991,340 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +3338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,17 +3349,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3977,14 +3389,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.41</v>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3993,14 +3427,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.06</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4009,14 +3465,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.11</v>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4025,14 +3503,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.55</v>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4041,14 +3541,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.7</v>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4057,14 +3579,492 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.220000000000001</v>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.06</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.55</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>6.7</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
         <v>9.220000000000001</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1018,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1606,7 +1907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2080,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2585,746 +2886,6 @@
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4644</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3583</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6079</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3845</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3098</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2078</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010552</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商智选领航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1101</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010553</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智选领航三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3399,6 +2960,746 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>62.95</t>
         </is>
       </c>

--- a/数据整理/stocks/港股/01347-华虹半导体.xlsx
+++ b/数据整理/stocks/港股/01347-华虹半导体.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.06</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.55</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>6.7</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>18</v>
       </c>
       <c r="D8" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
         <v>9.220000000000001</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1907,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2886,746 +3643,6 @@
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4644</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3583</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6079</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3845</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3098</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2078</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010552</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商智选领航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1101</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010553</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智选领航三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3700,6 +3717,746 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>62.95</t>
         </is>
       </c>
